--- a/results/multilabel_native/41470/automl.xlsx
+++ b/results/multilabel_native/41470/automl.xlsx
@@ -585,12 +585,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.728 (0.684 Â± 0.022)</t>
+          <t>0.744 (0.689 Â± 0.030)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:05:13 (00:15:08 Â± 00:11:49)</t>
+          <t>00:05:06 (00:09:55 Â± 00:04:20)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>71</t>
         </is>
       </c>
     </row>

--- a/results/multilabel_native/41470/automl.xlsx
+++ b/results/multilabel_native/41470/automl.xlsx
@@ -483,11 +483,31 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.399 (0.350 ± 0.021)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:02:39 (00:02:48 ± 00:00:07)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,17 +517,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.711 (0.677 Â± 0.016)</t>
+          <t>0.711 (0.677 ± 0.016)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:03:15 (00:03:49 Â± 00:00:36)</t>
+          <t>00:03:15 (00:03:49 ± 00:00:36)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:10 (00:00:10 Â± 00:00:00)</t>
+          <t>00:00:10 (00:00:10 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +561,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.807 (0.775 Â± 0.015)</t>
+          <t>0.807 (0.775 ± 0.015)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -585,17 +605,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.744 (0.689 Â± 0.030)</t>
+          <t>0.744 (0.689 ± 0.030)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:05:06 (00:09:55 Â± 00:04:20)</t>
+          <t>00:05:06 (00:09:55 ± 00:04:20)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
